--- a/results/metric_df/PSA_metrics.xlsx
+++ b/results/metric_df/PSA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -495,33 +505,39 @@
         <v>1.956267480962229</v>
       </c>
       <c r="C2" t="n">
-        <v>1.656675648076949</v>
+        <v>1.719110253358471</v>
       </c>
       <c r="D2" t="n">
-        <v>24.5925</v>
+        <v>10.31466152015082</v>
       </c>
       <c r="E2" t="n">
-        <v>0.432</v>
+        <v>2.246467761813506</v>
       </c>
       <c r="F2" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>15.19205</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4421666666666667</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.406666666666666</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Fuc(a1-6)']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -537,33 +553,39 @@
         <v>2.396546476310971</v>
       </c>
       <c r="C3" t="n">
-        <v>2.032631731546139</v>
+        <v>1.713542306685894</v>
       </c>
       <c r="D3" t="n">
-        <v>17.06189381061894</v>
+        <v>10.28125384011537</v>
       </c>
       <c r="E3" t="n">
-        <v>0.471</v>
+        <v>2.319194752150569</v>
       </c>
       <c r="F3" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>10.46099834460998</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4656666666666667</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.691666666666666</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['Fuc(a1-6)']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -579,33 +601,39 @@
         <v>2.096733221302321</v>
       </c>
       <c r="C4" t="n">
-        <v>1.949736047171382</v>
+        <v>1.705205348620212</v>
       </c>
       <c r="D4" t="n">
-        <v>14.62466666666667</v>
+        <v>10.23123209172127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.464</v>
+        <v>2.278988440823358</v>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>11.51473333333333</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4273333333333333</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.545</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['Fuc(a1-6)']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -621,33 +649,39 @@
         <v>-0.5113809997216923</v>
       </c>
       <c r="C5" t="n">
-        <v>1.66530716417993</v>
+        <v>1.320305635977482</v>
       </c>
       <c r="D5" t="n">
-        <v>35.6324</v>
+        <v>7.921833815864892</v>
       </c>
       <c r="E5" t="n">
-        <v>0.452</v>
+        <v>1.859032791059621</v>
       </c>
       <c r="F5" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>20.12603333333333</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4601666666666667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.506666666666666</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['Fuc(a1-6)']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(a1-1)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -663,33 +697,39 @@
         <v>1.755543088080855</v>
       </c>
       <c r="C6" t="n">
-        <v>2.196111397777991</v>
+        <v>1.82214122119679</v>
       </c>
       <c r="D6" t="n">
-        <v>16.7310602273106</v>
+        <v>10.93284732718074</v>
       </c>
       <c r="E6" t="n">
-        <v>0.487</v>
+        <v>2.292498113295104</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>9.630772107974387</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4398333333333334</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.501666666666666</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['Fuc(a1-6)']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -705,33 +745,39 @@
         <v>1.858291657631213</v>
       </c>
       <c r="C7" t="n">
+        <v>1.689522106416171</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.13713263849703</v>
+      </c>
+      <c r="E7" t="n">
         <v>2.225995912439446</v>
       </c>
-      <c r="D7" t="n">
-        <v>19.03764285714286</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.483</v>
-      </c>
       <c r="F7" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>15.07476190476191</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4398333333333334</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.420000000000001</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['Fuc(a1-6)']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(a1-1)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -740,40 +786,46 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3017728187668761</v>
+        <v>6.893745301440715</v>
       </c>
       <c r="C8" t="n">
-        <v>2.324045455484034</v>
+        <v>2.173997190859382</v>
       </c>
       <c r="D8" t="n">
-        <v>2.18288</v>
+        <v>13.04398314515629</v>
       </c>
       <c r="E8" t="n">
-        <v>0.446</v>
+        <v>2.637590683923242</v>
       </c>
       <c r="F8" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>6.126377777777777</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4605</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.003333333333333</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['Fuc(a1-6)']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -782,40 +834,46 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.893745301440715</v>
+        <v>2.374452541445186</v>
       </c>
       <c r="C9" t="n">
-        <v>2.29808814603166</v>
+        <v>1.650730759480664</v>
       </c>
       <c r="D9" t="n">
-        <v>8.503333333333334</v>
+        <v>9.904384556883985</v>
       </c>
       <c r="E9" t="n">
-        <v>0.518</v>
+        <v>2.032357836478903</v>
       </c>
       <c r="F9" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>16.67451588174516</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4348333333333333</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.48</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['Fuc(a1-6)']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -824,40 +882,46 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3017728187668761</v>
+        <v>1.197293456276372</v>
       </c>
       <c r="C10" t="n">
-        <v>2.091318093705922</v>
+        <v>1.58600070230582</v>
       </c>
       <c r="D10" t="n">
-        <v>5.3316</v>
+        <v>9.516004213834922</v>
       </c>
       <c r="E10" t="n">
-        <v>0.434</v>
+        <v>1.916226175159495</v>
       </c>
       <c r="F10" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>18.18353333333333</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4424999999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.788333333333334</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Fuc(a1-6)']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -866,40 +930,46 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.374452541445186</v>
+        <v>-0.5178328764310538</v>
       </c>
       <c r="C11" t="n">
-        <v>1.680493591656133</v>
+        <v>1.301094879015797</v>
       </c>
       <c r="D11" t="n">
-        <v>14.01643169016431</v>
+        <v>7.806569274094784</v>
       </c>
       <c r="E11" t="n">
-        <v>0.496</v>
+        <v>1.872815737947853</v>
       </c>
       <c r="F11" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>45.04</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.636666666666667</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['Fuc(a1-6)']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -908,40 +978,46 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1.197293456276372</v>
       </c>
       <c r="C12" t="n">
-        <v>1.680813687621337</v>
+        <v>1.75801898759894</v>
       </c>
       <c r="D12" t="n">
-        <v>21.32665</v>
+        <v>10.54811392559364</v>
       </c>
       <c r="E12" t="n">
-        <v>0.463</v>
+        <v>2.391499767827045</v>
       </c>
       <c r="F12" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>15.96121111111111</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4425000000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.163333333333333</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['Fuc(a1-6)']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -950,124 +1026,46 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.5178328764310538</v>
+        <v>1.657779471911965</v>
       </c>
       <c r="C13" t="n">
-        <v>1.61872658599565</v>
+        <v>1.625896530851126</v>
       </c>
       <c r="D13" t="n">
-        <v>61.2</v>
+        <v>9.755379185106758</v>
       </c>
       <c r="E13" t="n">
-        <v>0.415</v>
+        <v>2.116867904741073</v>
       </c>
       <c r="F13" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>21.69549166666667</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4601666666666667</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9.551666666666668</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['Fuc(a1-6)']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.197293456276372</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.77321520669699</v>
-      </c>
-      <c r="D14" t="n">
-        <v>18.70323333333334</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.466</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.657779471911965</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.824471573310253</v>
-      </c>
-      <c r="D15" t="n">
-        <v>30.481875</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/results/metric_df/PSA_metrics.xlsx
+++ b/results/metric_df/PSA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,32 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
@@ -504,43 +479,24 @@
       <c r="B2" t="n">
         <v>1.956267480962229</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.719110253358471</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.31466152015082</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>2.246467761813506</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="F2" t="n">
-        <v>15.19205</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4421666666666667</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.406666666666666</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.802011629266494</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -552,43 +508,24 @@
       <c r="B3" t="n">
         <v>2.396546476310971</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.713542306685894</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.28125384011537</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>2.319194752150569</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="F3" t="n">
-        <v>10.46099834460998</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4656666666666667</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.691666666666666</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.138391272222455</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -600,43 +537,24 @@
       <c r="B4" t="n">
         <v>2.096733221302321</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.705205348620212</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.23123209172127</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>2.278988440823358</v>
+        <v>1.949736047171382</v>
       </c>
       <c r="F4" t="n">
-        <v>11.51473333333333</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4273333333333333</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.545</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>1.832930148686009</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -648,43 +566,24 @@
       <c r="B5" t="n">
         <v>-0.5113809997216923</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.320305635977482</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.921833815864892</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>1.859032791059621</v>
+        <v>1.66530716417993</v>
       </c>
       <c r="F5" t="n">
-        <v>20.12603333333333</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4601666666666667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.506666666666666</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(a1-1)', 'Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.977239377765388</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -696,43 +595,24 @@
       <c r="B6" t="n">
         <v>1.755543088080855</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.82214122119679</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.93284732718074</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>2.292498113295104</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="F6" t="n">
-        <v>9.630772107974387</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4398333333333334</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.501666666666666</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.329919368351718</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -744,331 +624,256 @@
       <c r="B7" t="n">
         <v>1.858291657631213</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.689522106416171</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.13713263849703</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>2.225995912439446</v>
       </c>
       <c r="F7" t="n">
-        <v>15.07476190476191</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4398333333333334</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.420000000000001</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(a1-1)', 'Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.38601469340206</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.893745301440715</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.173997190859382</v>
-      </c>
-      <c r="D8" t="n">
-        <v>13.04398314515629</v>
+        <v>-0.3017728187668761</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>2.637590683923242</v>
+        <v>2.324045455484034</v>
       </c>
       <c r="F8" t="n">
-        <v>6.126377777777777</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4605</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6.003333333333333</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>0.6839585910158147</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.374452541445186</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.650730759480664</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.904384556883985</v>
+        <v>6.893745301440715</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>2.032357836478903</v>
+        <v>2.29808814603166</v>
       </c>
       <c r="F9" t="n">
-        <v>16.67451588174516</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4348333333333333</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>1.522478268710401</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.197293456276372</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.58600070230582</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.516004213834922</v>
+        <v>-0.3017728187668761</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>1.916226175159495</v>
+        <v>2.091318093705922</v>
       </c>
       <c r="F10" t="n">
-        <v>18.18353333333333</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.4424999999999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.788333333333334</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>1.336433930902264</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.5178328764310538</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.301094879015797</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7.806569274094784</v>
+        <v>2.374452541445186</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>1.872815737947853</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="F11" t="n">
-        <v>45.04</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7.636666666666667</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>1.351307076307686</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1.197293456276372</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.75801898759894</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10.54811392559364</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>2.391499767827045</v>
+        <v>1.680813687621337</v>
       </c>
       <c r="F12" t="n">
-        <v>15.96121111111111</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.4425000000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6.163333333333333</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.227415995548301</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.5178328764310538</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1.61872658599565</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.03699080019519</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.197293456276372</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1.77321520669699</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.953418895848098</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B15" t="n">
         <v>1.657779471911965</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.625896530851126</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9.755379185106758</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.116867904741073</v>
-      </c>
-      <c r="F13" t="n">
-        <v>21.69549166666667</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.4601666666666667</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9.551666666666668</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1.824471573310253</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.938720374567993</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
